--- a/BalanceSheet/IFF_bal.xlsx
+++ b/BalanceSheet/IFF_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>60695000.0</v>
+        <v>1132000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>24477000.0</v>
+        <v>1151000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-66680000.0</v>
+        <v>1166000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-568000.0</v>
+        <v>1076000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>22011000.0</v>
+        <v>1123000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1126389000.0</v>
@@ -2018,19 +2018,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>6330000.0</v>
+        <v>556000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-40672000.0</v>
+        <v>505000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>93900000.0</v>
+        <v>551000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-31635000.0</v>
+        <v>456000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>94796000.0</v>
+        <v>510000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>416563000.0</v>
@@ -3238,19 +3238,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-30572000.0</v>
+        <v>396000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-29303000.0</v>
+        <v>458000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-10064000.0</v>
+        <v>582000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2221000.0</v>
+        <v>591000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-24145000.0</v>
+        <v>516000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>634030000.0</v>
